--- a/DX_study/DX_study/Data/CSV/Scene_GameObject.xlsx
+++ b/DX_study/DX_study/Data/CSV/Scene_GameObject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\source\repos\2020_DirectX_Project\DX_study\DX_study\Data\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5988191-18D3-4858-A2A7-6B3DAB46A9F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C06F237-FB34-4DC3-BAE5-5C92627E57AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F553E549-D7D4-4838-9823-4E194DD1707F}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>skinned_vertex</t>
   </si>
   <si>
-    <t>Box</t>
-  </si>
-  <si>
     <t>Ground</t>
   </si>
   <si>
@@ -105,6 +102,10 @@
   </si>
   <si>
     <t>CharacterMove/Animator</t>
+  </si>
+  <si>
+    <t>Sphere</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -557,7 +558,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -573,118 +574,118 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DX_study/DX_study/Data/CSV/Scene_GameObject.xlsx
+++ b/DX_study/DX_study/Data/CSV/Scene_GameObject.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\source\repos\2020_DirectX_Project\DX_study\DX_study\Data\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C06F237-FB34-4DC3-BAE5-5C92627E57AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D52D251-3977-40BF-B57A-952C2E7316F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F553E549-D7D4-4838-9823-4E194DD1707F}"/>
+    <workbookView xWindow="1680" yWindow="1908" windowWidth="17280" windowHeight="8952" xr2:uid="{F553E549-D7D4-4838-9823-4E194DD1707F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scene_GameObject" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
-  <si>
-    <t>vertexshader</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>50.0/1.0/50.0</t>
   </si>
@@ -47,9 +44,6 @@
     <t>10.0/0.0/0.0</t>
   </si>
   <si>
-    <t>skinned_vertex</t>
-  </si>
-  <si>
     <t>Ground</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>TransformParent</t>
   </si>
   <si>
-    <t>VertexShader</t>
-  </si>
-  <si>
     <t>AddComponent</t>
   </si>
   <si>
@@ -92,19 +83,13 @@
     <t>0.0/0.0/0.0</t>
   </si>
   <si>
-    <t>PixelShader</t>
-  </si>
-  <si>
     <t>Animator</t>
   </si>
   <si>
-    <t>pixelshader_deferred</t>
-  </si>
-  <si>
     <t>CharacterMove/Animator</t>
   </si>
   <si>
-    <t>Sphere</t>
+    <t>cube</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AFB322-85E7-479A-B588-135497AD05BA}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -567,125 +552,99 @@
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="5" max="5" width="17.19921875" customWidth="1"/>
-    <col min="6" max="6" width="20.3984375" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="9" max="9" width="27.796875" customWidth="1"/>
+    <col min="7" max="7" width="27.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DX_study/DX_study/Data/CSV/Scene_GameObject.xlsx
+++ b/DX_study/DX_study/Data/CSV/Scene_GameObject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\source\repos\2020_DirectX_Project\DX_study\DX_study\Data\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D52D251-3977-40BF-B57A-952C2E7316F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592CB2E3-9A56-428A-AC40-A39629D6F74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1908" windowWidth="17280" windowHeight="8952" xr2:uid="{F553E549-D7D4-4838-9823-4E194DD1707F}"/>
+    <workbookView xWindow="5472" yWindow="1908" windowWidth="17280" windowHeight="8952" xr2:uid="{F553E549-D7D4-4838-9823-4E194DD1707F}"/>
   </bookViews>
   <sheets>
     <sheet name="Scene_GameObject" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t>50.0/1.0/50.0</t>
   </si>
@@ -90,6 +90,86 @@
   </si>
   <si>
     <t>cube</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0/1.0/1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBR_Sphere0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphere</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0/5.0/-1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0/5.0/-1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0/5.0/-1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBR_Sphere1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBR_Sphere2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBR_Sphere3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBR_Sphere4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0/3.0/-1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0/3.0/-1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0/3.0/-1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBR_Sphere5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBR_Sphere6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBR_Sphere7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBR_Sphere8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0/7.0/-1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0/7.0/-1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0/7.0/-1.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -540,14 +620,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AFB322-85E7-479A-B588-135497AD05BA}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="15.19921875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="13.19921875" customWidth="1"/>
@@ -647,6 +728,213 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DX_study/DX_study/Data/CSV/Scene_GameObject.xlsx
+++ b/DX_study/DX_study/Data/CSV/Scene_GameObject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\source\repos\2020_DirectX_Project\DX_study\DX_study\Data\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592CB2E3-9A56-428A-AC40-A39629D6F74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9A9563-5380-420E-903F-821CFC88D14B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5472" yWindow="1908" windowWidth="17280" windowHeight="8952" xr2:uid="{F553E549-D7D4-4838-9823-4E194DD1707F}"/>
+    <workbookView xWindow="1404" yWindow="2796" windowWidth="17280" windowHeight="8952" xr2:uid="{F553E549-D7D4-4838-9823-4E194DD1707F}"/>
   </bookViews>
   <sheets>
     <sheet name="Scene_GameObject" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
   <si>
     <t>50.0/1.0/50.0</t>
   </si>
@@ -171,6 +171,21 @@
   <si>
     <t>0.0/7.0/-1.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>130.0/0.0/0.0</t>
+  </si>
+  <si>
+    <t>10.0/55.0/00.0</t>
+  </si>
+  <si>
+    <t>10.0/1.0/1.0</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>SpotLight</t>
   </si>
 </sst>
 </file>
@@ -278,15 +293,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,9 +323,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준_Scene_GameObject" xfId="2" xr:uid="{22813815-4FAF-48DB-9331-B454389CC433}"/>
     <cellStyle name="표준_Sheet1" xfId="1" xr:uid="{94E11A06-1B4D-465D-A2C7-18ED815AC45D}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -620,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AFB322-85E7-479A-B588-135497AD05BA}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -935,6 +957,29 @@
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
